--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.5144951287644</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H2">
-        <v>16.5144951287644</v>
+        <v>53.031415</v>
       </c>
       <c r="I2">
-        <v>0.8035921537842492</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J2">
-        <v>0.8035921537842492</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N2">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P2">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q2">
-        <v>34.35768571676073</v>
+        <v>40.85713447555667</v>
       </c>
       <c r="R2">
-        <v>34.35768571676073</v>
+        <v>367.71421028001</v>
       </c>
       <c r="S2">
-        <v>0.670536401642653</v>
+        <v>0.5982837521524956</v>
       </c>
       <c r="T2">
-        <v>0.670536401642653</v>
+        <v>0.6370688075819485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.5144951287644</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H3">
-        <v>16.5144951287644</v>
+        <v>53.031415</v>
       </c>
       <c r="I3">
-        <v>0.8035921537842492</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J3">
-        <v>0.8035921537842492</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N3">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O3">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P3">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q3">
-        <v>6.817657779188616</v>
+        <v>0.4303793946222222</v>
       </c>
       <c r="R3">
-        <v>6.817657779188616</v>
+        <v>3.873414551599999</v>
       </c>
       <c r="S3">
-        <v>0.1330557521415962</v>
+        <v>0.006302179591614506</v>
       </c>
       <c r="T3">
-        <v>0.1330557521415962</v>
+        <v>0.006710732195471333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33304312828523</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H4">
-        <v>1.33304312828523</v>
+        <v>53.031415</v>
       </c>
       <c r="I4">
-        <v>0.06486562200016642</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J4">
-        <v>0.06486562200016642</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N4">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O4">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P4">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q4">
-        <v>2.773337997401937</v>
+        <v>9.012034925131665</v>
       </c>
       <c r="R4">
-        <v>2.773337997401937</v>
+        <v>54.07220955078999</v>
       </c>
       <c r="S4">
-        <v>0.05412541742907772</v>
+        <v>0.1319660357669674</v>
       </c>
       <c r="T4">
-        <v>0.05412541742907772</v>
+        <v>0.09368068216784851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33304312828523</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H5">
-        <v>1.33304312828523</v>
+        <v>5.199877</v>
       </c>
       <c r="I5">
-        <v>0.06486562200016642</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J5">
-        <v>0.06486562200016642</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412828713565324</v>
+        <v>2.311298</v>
       </c>
       <c r="N5">
-        <v>0.412828713565324</v>
+        <v>6.933894</v>
       </c>
       <c r="O5">
-        <v>0.1655762211154184</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P5">
-        <v>0.1655762211154184</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q5">
-        <v>0.5503184797770867</v>
+        <v>4.006155103448667</v>
       </c>
       <c r="R5">
-        <v>0.5503184797770867</v>
+        <v>36.055395931038</v>
       </c>
       <c r="S5">
-        <v>0.01074020457108871</v>
+        <v>0.05866337759027292</v>
       </c>
       <c r="T5">
-        <v>0.01074020457108871</v>
+        <v>0.06246635960897516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52807221271776</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H6">
-        <v>1.52807221271776</v>
+        <v>5.199877</v>
       </c>
       <c r="I6">
-        <v>0.07435569970388808</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J6">
-        <v>0.07435569970388808</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.08045631724567</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N6">
-        <v>2.08045631724567</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8344237788845816</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P6">
-        <v>0.8344237788845816</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q6">
-        <v>3.179087488156233</v>
+        <v>0.04219989067555555</v>
       </c>
       <c r="R6">
-        <v>3.179087488156233</v>
+        <v>0.3797990160799999</v>
       </c>
       <c r="S6">
-        <v>0.06204416392852546</v>
+        <v>0.0006179461496229296</v>
       </c>
       <c r="T6">
-        <v>0.06204416392852546</v>
+        <v>0.0006580058630604311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52807221271776</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H7">
-        <v>1.52807221271776</v>
+        <v>5.199877</v>
       </c>
       <c r="I7">
-        <v>0.07435569970388808</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J7">
-        <v>0.07435569970388808</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.412828713565324</v>
+        <v>0.509813</v>
       </c>
       <c r="N7">
-        <v>0.412828713565324</v>
+        <v>1.019626</v>
       </c>
       <c r="O7">
-        <v>0.1655762211154184</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P7">
-        <v>0.1655762211154184</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q7">
-        <v>0.630832085811191</v>
+        <v>0.8836549643336665</v>
       </c>
       <c r="R7">
-        <v>0.630832085811191</v>
+        <v>5.301929786002</v>
       </c>
       <c r="S7">
-        <v>0.01231153577536263</v>
+        <v>0.01293963501003756</v>
       </c>
       <c r="T7">
-        <v>0.01231153577536263</v>
+        <v>0.009185650138675455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17523121154432</v>
+        <v>3.321288666666666</v>
       </c>
       <c r="H8">
-        <v>1.17523121154432</v>
+        <v>9.963865999999999</v>
       </c>
       <c r="I8">
-        <v>0.05718652451169619</v>
+        <v>0.1383878802086788</v>
       </c>
       <c r="J8">
-        <v>0.05718652451169619</v>
+        <v>0.1385585285965482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N8">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P8">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q8">
-        <v>2.445017198281663</v>
+        <v>7.676487852689333</v>
       </c>
       <c r="R8">
-        <v>2.445017198281663</v>
+        <v>69.08839067420401</v>
       </c>
       <c r="S8">
-        <v>0.04771779588432529</v>
+        <v>0.1124092037978749</v>
       </c>
       <c r="T8">
-        <v>0.04771779588432529</v>
+        <v>0.1196963767896127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.321288666666666</v>
+      </c>
+      <c r="H9">
+        <v>9.963865999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1383878802086788</v>
+      </c>
+      <c r="J9">
+        <v>0.1385585285965482</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P9">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q9">
+        <v>0.0808623080711111</v>
+      </c>
+      <c r="R9">
+        <v>0.7277607726399999</v>
+      </c>
+      <c r="S9">
+        <v>0.001184091975648428</v>
+      </c>
+      <c r="T9">
+        <v>0.001260853333020855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.321288666666666</v>
+      </c>
+      <c r="H10">
+        <v>9.963865999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1383878802086788</v>
+      </c>
+      <c r="J10">
+        <v>0.1385585285965482</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.509813</v>
+      </c>
+      <c r="N10">
+        <v>1.019626</v>
+      </c>
+      <c r="O10">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P10">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q10">
+        <v>1.693236139019333</v>
+      </c>
+      <c r="R10">
+        <v>10.159416834116</v>
+      </c>
+      <c r="S10">
+        <v>0.02479458443515547</v>
+      </c>
+      <c r="T10">
+        <v>0.01760129847391461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J11">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.311298</v>
+      </c>
+      <c r="N11">
+        <v>6.933894</v>
+      </c>
+      <c r="O11">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P11">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q11">
+        <v>2.726079686916667</v>
+      </c>
+      <c r="R11">
+        <v>24.53471718225</v>
+      </c>
+      <c r="S11">
+        <v>0.03991883436492476</v>
+      </c>
+      <c r="T11">
+        <v>0.04250666028858134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J12">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P12">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q12">
+        <v>0.02871587888888888</v>
+      </c>
+      <c r="R12">
+        <v>0.2584429099999999</v>
+      </c>
+      <c r="S12">
+        <v>0.0004204955631012105</v>
+      </c>
+      <c r="T12">
+        <v>0.0004477551095355626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J13">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.509813</v>
+      </c>
+      <c r="N13">
+        <v>1.019626</v>
+      </c>
+      <c r="O13">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P13">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q13">
+        <v>0.6013031912916664</v>
+      </c>
+      <c r="R13">
+        <v>3.607819147749999</v>
+      </c>
+      <c r="S13">
+        <v>0.008805070010048632</v>
+      </c>
+      <c r="T13">
+        <v>0.006250585313736413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.17523121154432</v>
-      </c>
-      <c r="H9">
-        <v>1.17523121154432</v>
-      </c>
-      <c r="I9">
-        <v>0.05718652451169619</v>
-      </c>
-      <c r="J9">
-        <v>0.05718652451169619</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="N9">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="O9">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="P9">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="Q9">
-        <v>0.4851691892036588</v>
-      </c>
-      <c r="R9">
-        <v>0.4851691892036588</v>
-      </c>
-      <c r="S9">
-        <v>0.009468728627370906</v>
-      </c>
-      <c r="T9">
-        <v>0.009468728627370906</v>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0886745</v>
+      </c>
+      <c r="H14">
+        <v>0.177349</v>
+      </c>
+      <c r="I14">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J14">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.311298</v>
+      </c>
+      <c r="N14">
+        <v>6.933894</v>
+      </c>
+      <c r="O14">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P14">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q14">
+        <v>0.204953194501</v>
+      </c>
+      <c r="R14">
+        <v>1.229719167006</v>
+      </c>
+      <c r="S14">
+        <v>0.003001193495228054</v>
+      </c>
+      <c r="T14">
+        <v>0.002130501627306211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0886745</v>
+      </c>
+      <c r="H15">
+        <v>0.177349</v>
+      </c>
+      <c r="I15">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J15">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P15">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q15">
+        <v>0.002158928493333333</v>
+      </c>
+      <c r="R15">
+        <v>0.01295357096</v>
+      </c>
+      <c r="S15">
+        <v>3.161386269987067E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.244220042279931E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0886745</v>
+      </c>
+      <c r="H16">
+        <v>0.177349</v>
+      </c>
+      <c r="I16">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J16">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.509813</v>
+      </c>
+      <c r="N16">
+        <v>1.019626</v>
+      </c>
+      <c r="O16">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P16">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q16">
+        <v>0.0452074128685</v>
+      </c>
+      <c r="R16">
+        <v>0.180829651474</v>
+      </c>
+      <c r="S16">
+        <v>0.0006619862343076054</v>
+      </c>
+      <c r="T16">
+        <v>0.0003132893078901584</v>
       </c>
     </row>
   </sheetData>
